--- a/biology/Zoologie/Coquette_de_Popelaire/Coquette_de_Popelaire.xlsx
+++ b/biology/Zoologie/Coquette_de_Popelaire/Coquette_de_Popelaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Discosura popelairii
 La Coquette de Popelaire (Discosura popelairii) est une espèce de colibris (famille des Trochilidae).
@@ -512,7 +524,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit du nectar des fleurs qu'elle collecte avec sa longue langue, mais aussi d'insectes attrapés en vol par leurs ailes.
 Ces oiseaux ont besoin de se nourrir souvent dans la journée pour rester actifs et entrent en torpeur la nuit pour ne pas dépenser leur énergie.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Colombie, en Équateur et au Pérou.
 </t>
